--- a/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,109 +40,127 @@
     <t>name</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>pool</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paid</t>
+    <t>minutes</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>nothing</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>light</t>
+    <t>doll</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>item</t>
@@ -151,13 +169,28 @@
     <t>money</t>
   </si>
   <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>product</t>
+    <t>price</t>
   </si>
   <si>
     <t>toy</t>
@@ -166,64 +199,70 @@
     <t>negative</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>excellent</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>grandchildren</t>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>everyone</t>
   </si>
   <si>
     <t>friends</t>
@@ -232,7 +271,22 @@
     <t>game</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -593,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -704,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -712,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>0.9148936170212766</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.8867924528301887</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.967741935483871</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.8701298701298701</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -854,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9660194174757282</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C7">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -880,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.8615384615384616</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -904,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9623655913978495</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C8">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.859375</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9565217391304348</v>
+        <v>0.9731182795698925</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9259259259259259</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.8153526970954357</v>
+        <v>0.7904564315352697</v>
       </c>
       <c r="L10">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="M10">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9140625</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="C11">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.8035714285714286</v>
+        <v>0.776183644189383</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8909090909090909</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8863636363636364</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1180,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.7604017216642754</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L13">
-        <v>530</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>530</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8524590163934426</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1230,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.6788990825688074</v>
+        <v>0.709480122324159</v>
       </c>
       <c r="L14">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M14">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.84375</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1280,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.578688524590164</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="L15">
-        <v>706</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>706</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1304,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>514</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8412698412698413</v>
+        <v>0.90625</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1330,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.5272727272727272</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1354,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1362,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8192771084337349</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C17">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1380,31 +1434,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17">
+        <v>0.6144578313253012</v>
+      </c>
+      <c r="L17">
+        <v>102</v>
+      </c>
+      <c r="M17">
+        <v>102</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>64</v>
-      </c>
-      <c r="K17">
-        <v>0.5072463768115942</v>
-      </c>
-      <c r="L17">
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>35</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1412,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.875</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1430,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.5042735042735043</v>
+        <v>0.5775225594749795</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>704</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>705</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>58</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8056872037914692</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="C19">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1480,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.4927536231884058</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1504,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1512,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7631578947368421</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1533,16 +1587,16 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.4848484848484849</v>
+        <v>0.5013927576601671</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1554,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1562,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7536231884057971</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1580,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0.4698795180722892</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L21">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1604,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1612,37 +1666,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7407407407407407</v>
+        <v>0.8104265402843602</v>
       </c>
       <c r="C22">
+        <v>171</v>
+      </c>
+      <c r="D22">
+        <v>171</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>40</v>
       </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>14</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.4373259052924791</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="L22">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1654,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>202</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1662,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.711340206185567</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="C23">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1680,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>0.3333333333333333</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L23">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1704,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1712,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7068965517241379</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1730,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>0.2517845554834523</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L24">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1754,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1762,13 +1816,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7027027027027027</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1780,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>0.182296231375986</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L25">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="M25">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1804,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>933</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1812,13 +1866,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6951219512195121</v>
+        <v>0.7710843373493976</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1830,7 +1884,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>0.3201298701298702</v>
+      </c>
+      <c r="L26">
+        <v>493</v>
+      </c>
+      <c r="M26">
+        <v>494</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1047</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1838,13 +1916,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6666666666666666</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="C27">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1856,7 +1934,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>0.275</v>
+      </c>
+      <c r="L27">
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <v>33</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1864,13 +1966,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6428571428571429</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1882,7 +1984,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28">
+        <v>0.272</v>
+      </c>
+      <c r="L28">
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <v>34</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1890,13 +2016,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6296296296296297</v>
+        <v>0.75</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1908,7 +2034,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29">
+        <v>0.238387379491674</v>
+      </c>
+      <c r="L29">
+        <v>272</v>
+      </c>
+      <c r="M29">
+        <v>272</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1916,13 +2066,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6289855072463768</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="C30">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1934,7 +2084,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="L30">
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <v>35</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1942,13 +2116,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.625</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1960,7 +2134,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31">
+        <v>0.1180555555555556</v>
+      </c>
+      <c r="L31">
+        <v>34</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1968,13 +2166,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6138613861386139</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="C32">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D32">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1986,7 +2184,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>78</v>
+        <v>23</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32">
+        <v>0.068</v>
+      </c>
+      <c r="L32">
+        <v>51</v>
+      </c>
+      <c r="M32">
+        <v>53</v>
+      </c>
+      <c r="N32">
+        <v>0.96</v>
+      </c>
+      <c r="O32">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>699</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1994,13 +2216,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5555555555555556</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2012,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2020,13 +2242,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5379746835443038</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C34">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="D34">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2038,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2046,13 +2268,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5178571428571429</v>
+        <v>0.6287128712871287</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2064,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2072,13 +2294,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4789915966386555</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="C36">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2090,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2098,13 +2320,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4175824175824176</v>
+        <v>0.5979381443298969</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2116,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2124,13 +2346,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3152173913043478</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="C38">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D38">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2142,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2150,13 +2372,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2531645569620253</v>
+        <v>0.560126582278481</v>
       </c>
       <c r="C39">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D39">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2168,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>236</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2176,13 +2398,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.185</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2194,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>163</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2202,13 +2424,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1293375394321767</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D41">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2220,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>276</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2228,13 +2450,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.07048458149779736</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2246,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>422</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2254,13 +2476,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05801526717557252</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2272,7 +2494,293 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>617</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="C44">
+        <v>96</v>
+      </c>
+      <c r="D44">
+        <v>96</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.2911392405063291</v>
+      </c>
+      <c r="C45">
+        <v>92</v>
+      </c>
+      <c r="D45">
+        <v>92</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.2404371584699453</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.234375</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.1754385964912281</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.145</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.1387665198237885</v>
+      </c>
+      <c r="C50">
+        <v>63</v>
+      </c>
+      <c r="D50">
+        <v>63</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1320474777448071</v>
+      </c>
+      <c r="C51">
+        <v>89</v>
+      </c>
+      <c r="D51">
+        <v>89</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.1265822784810127</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>41</v>
+      </c>
+      <c r="E52">
+        <v>0.02</v>
+      </c>
+      <c r="F52">
+        <v>0.98</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.1206896551724138</v>
+      </c>
+      <c r="C53">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <v>42</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.08396946564885496</v>
+      </c>
+      <c r="C54">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>55</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
